--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_3_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_3_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2264156.569273112</v>
+        <v>-2266154.242285957</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>179.6633719153172</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>140.4302863698577</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>254.0604086919632</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,10 +829,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>94.63926978364054</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>110.5201371783738</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,16 +902,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>223.8115744807455</v>
+        <v>102.8707742369807</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1063,13 +1063,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>140.1425501084455</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>105.7617448159911</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1151,7 +1151,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>252.0655080250096</v>
       </c>
       <c r="X8" t="n">
-        <v>201.1596923141568</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>37.83808333974872</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>139.8939792152981</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1333,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>104.6354350586182</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>36.73134639099199</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498001</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>137.9226914996342</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,22 +1813,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -2002,22 +2002,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>89.38210601524943</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,10 +2065,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>88.14992207191412</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,19 +2287,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>25.80112942390699</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>200.4177990254182</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2476,25 +2476,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C25" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D25" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E25" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692825</v>
       </c>
       <c r="F25" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G25" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H25" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I25" t="n">
-        <v>42.28735533463156</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S25" t="n">
         <v>129.7889198539626</v>
@@ -2530,7 +2530,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U25" t="n">
-        <v>218.1054622689363</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V25" t="n">
         <v>184.0057531941873</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,25 +2713,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C28" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D28" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857141</v>
       </c>
       <c r="E28" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F28" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G28" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H28" t="n">
-        <v>80.78193823789589</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I28" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E31" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I31" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463126</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415187</v>
+        <v>41.83246227415232</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539626</v>
@@ -3004,7 +3004,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U31" t="n">
-        <v>218.105462268937</v>
+        <v>218.1054622689361</v>
       </c>
       <c r="V31" t="n">
         <v>184.0057531941873</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898715</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415142</v>
       </c>
       <c r="S34" t="n">
-        <v>129.7889198539625</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T34" t="n">
         <v>153.4156709287486</v>
       </c>
       <c r="U34" t="n">
-        <v>218.105462268937</v>
+        <v>218.1054622689368</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
-        <v>129.7889198539625</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T37" t="n">
         <v>153.4156709287486</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689372</v>
+        <v>218.1054622689361</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3673,10 +3673,10 @@
         <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789523</v>
       </c>
       <c r="I40" t="n">
         <v>42.28735533463134</v>
@@ -3715,7 +3715,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U40" t="n">
-        <v>218.1054622689363</v>
+        <v>218.1054622689368</v>
       </c>
       <c r="V40" t="n">
         <v>184.0057531941874</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
         <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539631</v>
       </c>
       <c r="T43" t="n">
         <v>153.4156709287486</v>
       </c>
       <c r="U43" t="n">
-        <v>218.1054622689372</v>
+        <v>218.1054622689361</v>
       </c>
       <c r="V43" t="n">
         <v>184.0057531941873</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,22 +4135,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
         <v>42.28735533463133</v>
@@ -4183,13 +4183,13 @@
         <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
-        <v>129.7889198539627</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T46" t="n">
         <v>153.4156709287486</v>
       </c>
       <c r="U46" t="n">
-        <v>218.1054622689368</v>
+        <v>218.105462268937</v>
       </c>
       <c r="V46" t="n">
         <v>184.0057531941873</v>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1268.68094731003</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="C2" t="n">
-        <v>1268.68094731003</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.68094731003</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V2" t="n">
-        <v>2057.295728843236</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W2" t="n">
-        <v>1915.446954732269</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="X2" t="n">
-        <v>1658.820279285841</v>
+        <v>1576.102522773261</v>
       </c>
       <c r="Y2" t="n">
-        <v>1268.68094731003</v>
+        <v>1576.102522773261</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4425,13 +4425,13 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>361.80799380017</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="C4" t="n">
-        <v>361.80799380017</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="D4" t="n">
-        <v>211.6913543878343</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="E4" t="n">
-        <v>211.6913543878343</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="F4" t="n">
-        <v>211.6913543878343</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>616.4924820060569</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>616.4924820060569</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>616.4924820060569</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>616.4924820060569</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V4" t="n">
-        <v>361.80799380017</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W4" t="n">
-        <v>361.80799380017</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="X4" t="n">
-        <v>361.80799380017</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="Y4" t="n">
-        <v>361.80799380017</v>
+        <v>149.5382038240418</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>823.3126770315976</v>
+        <v>1490.978909181595</v>
       </c>
       <c r="C5" t="n">
-        <v>454.3501600911858</v>
+        <v>1122.016392241183</v>
       </c>
       <c r="D5" t="n">
-        <v>454.3501600911858</v>
+        <v>1122.016392241183</v>
       </c>
       <c r="E5" t="n">
-        <v>454.3501600911858</v>
+        <v>736.2281396429387</v>
       </c>
       <c r="F5" t="n">
-        <v>447.4046593419824</v>
+        <v>325.2422348533311</v>
       </c>
       <c r="G5" t="n">
-        <v>433.4812552805733</v>
+        <v>311.318830791922</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2267.209817970484</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>1936.146930626913</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>1583.378275356799</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X5" t="n">
-        <v>1209.912517095719</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="Y5" t="n">
-        <v>1209.912517095719</v>
+        <v>1490.978909181595</v>
       </c>
     </row>
     <row r="6">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.942782082032</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="C7" t="n">
-        <v>222.942782082032</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="D7" t="n">
-        <v>222.942782082032</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942401</v>
+        <v>586.570852783762</v>
       </c>
       <c r="U7" t="n">
-        <v>550.5654064942401</v>
+        <v>586.570852783762</v>
       </c>
       <c r="V7" t="n">
-        <v>550.5654064942401</v>
+        <v>586.570852783762</v>
       </c>
       <c r="W7" t="n">
-        <v>550.5654064942401</v>
+        <v>586.570852783762</v>
       </c>
       <c r="X7" t="n">
-        <v>443.7353612255621</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.942782082032</v>
+        <v>358.5813018857447</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1282.700798147047</v>
+        <v>1129.234822142136</v>
       </c>
       <c r="C8" t="n">
-        <v>913.7382812066351</v>
+        <v>760.2723052017247</v>
       </c>
       <c r="D8" t="n">
-        <v>555.4725825998845</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="E8" t="n">
-        <v>555.4725825998845</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.661061815299</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W8" t="n">
-        <v>1485.892406545185</v>
+        <v>1892.839912379028</v>
       </c>
       <c r="X8" t="n">
-        <v>1282.700798147047</v>
+        <v>1519.374154117948</v>
       </c>
       <c r="Y8" t="n">
-        <v>1282.700798147047</v>
+        <v>1129.234822142136</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4884,40 +4884,40 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>195.2500315327868</v>
+        <v>689.9086980046678</v>
       </c>
       <c r="C10" t="n">
-        <v>195.2500315327868</v>
+        <v>520.9725150767609</v>
       </c>
       <c r="D10" t="n">
-        <v>195.2500315327868</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="E10" t="n">
-        <v>195.2500315327868</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F10" t="n">
-        <v>195.2500315327868</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>195.2500315327868</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>195.2500315327868</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>195.2500315327868</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>195.2500315327868</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>195.2500315327868</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>195.2500315327868</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5021,13 +5021,13 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155894</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5039,10 +5039,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5051,7 +5051,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2208.321444831246</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>656.1762782006411</v>
+        <v>1096.475226584133</v>
       </c>
       <c r="C13" t="n">
-        <v>656.1762782006411</v>
+        <v>927.5390436562259</v>
       </c>
       <c r="D13" t="n">
-        <v>506.0596387883054</v>
+        <v>777.4224042438901</v>
       </c>
       <c r="E13" t="n">
-        <v>506.0596387883054</v>
+        <v>629.509310661497</v>
       </c>
       <c r="F13" t="n">
-        <v>359.1696912903951</v>
+        <v>482.6193631635866</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>314.4440414834072</v>
       </c>
       <c r="H13" t="n">
         <v>208.7516828383384</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1350.738797027817</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1126.953381817323</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>837.8247430308809</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>837.8247430308809</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W13" t="n">
-        <v>837.8247430308809</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X13" t="n">
-        <v>837.8247430308809</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y13" t="n">
-        <v>837.8247430308809</v>
+        <v>1278.123691414372</v>
       </c>
     </row>
     <row r="14">
@@ -5258,43 +5258,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5303,10 +5303,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
         <v>4262.357857465301</v>
@@ -5355,22 +5355,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>846.3978353108171</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>677.4616523829102</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011506</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>985.7136853104475</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>985.7136853104475</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>985.7136853104475</v>
       </c>
     </row>
     <row r="17">
@@ -5513,19 +5513,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5604,13 +5604,13 @@
         <v>1302.911127126629</v>
       </c>
       <c r="N18" t="n">
-        <v>1661.954360834046</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2302.237516093321</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2507.25999687553</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>710.6134626728254</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="C19" t="n">
-        <v>710.6134626728254</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D19" t="n">
-        <v>710.6134626728254</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E19" t="n">
-        <v>562.7003690904323</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1408.631314986943</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1184.845899776449</v>
       </c>
       <c r="U19" t="n">
-        <v>1275.130855347408</v>
+        <v>895.7172609900073</v>
       </c>
       <c r="V19" t="n">
-        <v>1020.446367141521</v>
+        <v>641.0327727841204</v>
       </c>
       <c r="W19" t="n">
-        <v>1020.446367141521</v>
+        <v>641.0327727841204</v>
       </c>
       <c r="X19" t="n">
-        <v>931.4060418163556</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="Y19" t="n">
-        <v>710.6134626728254</v>
+        <v>413.0432218861031</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,34 +5768,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5817,34 +5817,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>592.8217113586352</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>266.1532743881928</v>
+        <v>584.7466045204288</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5911,13 +5911,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1472.854523665067</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347409</v>
+        <v>1249.069108454573</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609669</v>
+        <v>1249.069108454573</v>
       </c>
       <c r="V22" t="n">
-        <v>783.5599953231707</v>
+        <v>994.3846202486859</v>
       </c>
       <c r="W22" t="n">
-        <v>494.1428252862101</v>
+        <v>994.3846202486859</v>
       </c>
       <c r="X22" t="n">
-        <v>266.1532743881928</v>
+        <v>766.3950693506686</v>
       </c>
       <c r="Y22" t="n">
-        <v>266.1532743881928</v>
+        <v>766.3950693506686</v>
       </c>
     </row>
     <row r="23">
@@ -5978,34 +5978,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6084,10 +6084,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>659.4602391108336</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C25" t="n">
-        <v>559.3441472229679</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D25" t="n">
-        <v>478.0475988506732</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E25" t="n">
-        <v>398.9545963083211</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F25" t="n">
-        <v>320.8847398504519</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G25" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H25" t="n">
-        <v>139.9315917982975</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K25" t="n">
         <v>394.6863306254957</v>
@@ -6178,19 +6178,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U25" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V25" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W25" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X25" t="n">
-        <v>924.2611010045213</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y25" t="n">
-        <v>772.2886129010323</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="26">
@@ -6215,37 +6215,37 @@
         <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6303,28 +6303,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>190.6805289025654</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>339.7502131046252</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>953.6472828615139</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C28" t="n">
-        <v>559.3441472229675</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D28" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E28" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F28" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G28" t="n">
-        <v>221.5295092103133</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H28" t="n">
         <v>139.9315917982973</v>
@@ -6418,16 +6418,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V28" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W28" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X28" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y28" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="29">
@@ -6443,31 +6443,31 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6482,7 +6482,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6540,28 +6540,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C31" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E31" t="n">
         <v>398.9545963083204</v>
@@ -6613,13 +6613,13 @@
         <v>221.5295092103129</v>
       </c>
       <c r="H31" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K31" t="n">
         <v>394.6863306254957</v>
@@ -6652,19 +6652,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U31" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W31" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="32">
@@ -6677,34 +6677,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6786,7 +6786,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6883,25 +6883,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7011,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
         <v>320.8847398504512</v>
@@ -7093,13 +7093,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525401</v>
+        <v>177.0503551525397</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,31 +7114,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="38">
@@ -7160,10 +7160,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7269,10 +7269,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G40" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7330,10 +7330,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
         <v>709.8489468649691</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="41">
@@ -7397,10 +7397,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7415,7 +7415,7 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7494,16 +7494,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>1196.088769018223</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2317.834075963124</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F43" t="n">
         <v>320.8847398504512</v>
@@ -7570,10 +7570,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7582,10 +7582,10 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q43" t="n">
         <v>2038.520840384657</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010313</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="44">
@@ -7625,28 +7625,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7728,19 +7728,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>559.3999450277973</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>806.1650729342614</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1113.485206214223</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1443.347833878256</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2317.834075963124</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108323</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229664</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506718</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083198</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504505</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7801,16 +7801,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7828,7 +7828,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
         <v>1865.165908942116</v>
@@ -7843,13 +7843,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010309</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
   </sheetData>
@@ -8073,10 +8073,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,13 +8766,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8781,13 +8781,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>124.3400780863231</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445217</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9252,7 +9252,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>29.47535963978214</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9261,7 +9261,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>29.47535963978233</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445217</v>
@@ -9480,10 +9480,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>182.0340742867951</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776744</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,16 +9951,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>52.49733361305248</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10595,7 +10595,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11063,10 +11063,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11142,7 +11142,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>277.6717966208062</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>148.2747143566559</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11388,10 +11388,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>203.0704697481633</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22607,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>208.8106823475553</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22705,7 +22705,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>123.3490228048871</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22717,7 +22717,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>72.67053247541037</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -22747,10 +22747,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22768,7 +22768,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>44.27839330891797</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>161.1894635926113</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>41.90928868230313</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,22 +23701,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23890,22 +23890,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23938,13 +23938,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>108.5387039683538</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>137.559733317123</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24139,10 +24139,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24175,19 +24175,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>172.1196805596963</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>51.71984429840981</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -26314,16 +26314,16 @@
         <v>18391.92434782022</v>
       </c>
       <c r="C2" t="n">
-        <v>20526.04424660708</v>
+        <v>20526.04424660707</v>
       </c>
       <c r="D2" t="n">
-        <v>20526.04424660708</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="E2" t="n">
+        <v>19551.45298688543</v>
+      </c>
+      <c r="F2" t="n">
         <v>19551.45298688544</v>
-      </c>
-      <c r="F2" t="n">
-        <v>19551.45298688543</v>
       </c>
       <c r="G2" t="n">
         <v>19551.45298688544</v>
@@ -26332,13 +26332,13 @@
         <v>19551.45298688544</v>
       </c>
       <c r="I2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.04424660712</v>
       </c>
       <c r="J2" t="n">
         <v>20526.04424660712</v>
       </c>
       <c r="K2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.04424660707</v>
       </c>
       <c r="L2" t="n">
         <v>20526.0442466071</v>
@@ -26347,13 +26347,13 @@
         <v>20526.0442466071</v>
       </c>
       <c r="N2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.0442466071</v>
       </c>
       <c r="O2" t="n">
         <v>20526.0442466071</v>
       </c>
       <c r="P2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.0442466071</v>
       </c>
     </row>
     <row r="3">
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>54505.51210371254</v>
+        <v>54505.51210371252</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26427,16 +26427,16 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687075</v>
       </c>
       <c r="G4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="J4" t="n">
         <v>44593.39482819119</v>
@@ -26445,16 +26445,16 @@
         <v>44593.39482819119</v>
       </c>
       <c r="L4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.39482819118</v>
       </c>
       <c r="N4" t="n">
         <v>44593.39482819119</v>
       </c>
       <c r="O4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="P4" t="n">
         <v>44593.39482819119</v>
@@ -26479,13 +26479,13 @@
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>97715.10582002539</v>
@@ -26500,7 +26500,7 @@
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-771344.4857749605</v>
+        <v>-771557.897764839</v>
       </c>
       <c r="C6" t="n">
         <v>-227965.9016033268</v>
@@ -26528,19 +26528,19 @@
         <v>-227965.9016033268</v>
       </c>
       <c r="E6" t="n">
-        <v>-619770.517025598</v>
+        <v>-619867.9761515701</v>
       </c>
       <c r="F6" t="n">
-        <v>-94610.48054870192</v>
+        <v>-94707.9396746741</v>
       </c>
       <c r="G6" t="n">
-        <v>-94610.4805487019</v>
+        <v>-94707.93967467407</v>
       </c>
       <c r="H6" t="n">
-        <v>-94610.4805487019</v>
+        <v>-94707.93967467405</v>
       </c>
       <c r="I6" t="n">
-        <v>-176287.9685053221</v>
+        <v>-176287.968505322</v>
       </c>
       <c r="J6" t="n">
         <v>-298205.6755942024</v>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964064</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26747,25 +26747,25 @@
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541003</v>
@@ -26777,7 +26777,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>115.6706919865058</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,10 +27537,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>43.89779829374076</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,10 +27549,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>36.14505480178406</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,16 +27591,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,16 +27622,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>100.1111982836117</v>
+        <v>221.0519985273764</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27783,19 +27783,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>84.8925553496388</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>119.947910573046</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27907,19 +27907,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>97.17546069240342</v>
       </c>
       <c r="X8" t="n">
-        <v>168.5714083643122</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>141.9938968421886</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>16.27690962649703</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34793,10 +34793,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35027,7 +35027,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35264,13 +35264,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504663</v>
@@ -35501,13 +35501,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>331.4334930178478</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>345.2951542341714</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35972,7 +35972,7 @@
         <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>362.6699330377951</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
         <v>676.2260215178377</v>
@@ -35981,7 +35981,7 @@
         <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>117.4883924248565</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>332.6095128747343</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091992</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36452,13 +36452,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K25" t="n">
         <v>219.8343186595512</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.40751256795913</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36765,7 +36765,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O28" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P28" t="n">
         <v>246.5154907414414</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37002,7 +37002,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P31" t="n">
         <v>246.5154907414414</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,22 +37154,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37315,7 +37315,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
         <v>713.1546070951472</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37637,13 +37637,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37783,10 +37783,10 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37862,7 +37862,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>526.9295015768305</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504663</v>
@@ -37874,7 +37874,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520621</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L43" t="n">
         <v>318.3460770095692</v>
@@ -38017,7 +38017,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>298.8501529445951</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38187,7 +38187,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
         <v>246.5154907414414</v>
